--- a/Proteasome/in_vitro/immuno/results/5CV/external.xlsx
+++ b/Proteasome/in_vitro/immuno/results/5CV/external.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>model</t>
   </si>
@@ -25,7 +25,25 @@
     <t>auc_roc</t>
   </si>
   <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Sens</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>ap</t>
+  </si>
+  <si>
+    <t>MCC</t>
   </si>
   <si>
     <t>immuno_4</t>
@@ -392,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,10 +429,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -423,12 +459,30 @@
         <v>0.5423568844306232</v>
       </c>
       <c r="D2">
+        <v>0.8381999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.1294765840220386</v>
+      </c>
+      <c r="F2">
+        <v>0.9502196193265008</v>
+      </c>
+      <c r="G2">
+        <v>0.6653919694072657</v>
+      </c>
+      <c r="H2">
+        <v>0.5398481016742697</v>
+      </c>
+      <c r="I2">
         <v>0.4061724161574558</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="J2">
+        <v>0.1419368395559372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -437,12 +491,30 @@
         <v>0.598674292808371</v>
       </c>
       <c r="D3">
+        <v>0.3071</v>
+      </c>
+      <c r="E3">
+        <v>0.4576719576719577</v>
+      </c>
+      <c r="F3">
+        <v>0.729050279329609</v>
+      </c>
+      <c r="G3">
+        <v>0.6352833638025595</v>
+      </c>
+      <c r="H3">
+        <v>0.5933611185007833</v>
+      </c>
+      <c r="I3">
         <v>0.4654530482030321</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="J3">
+        <v>0.1880607722939686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -451,12 +523,30 @@
         <v>0.5406596571502746</v>
       </c>
       <c r="D4">
+        <v>0.7711</v>
+      </c>
+      <c r="E4">
+        <v>0.1629834254143646</v>
+      </c>
+      <c r="F4">
+        <v>0.9456681350954479</v>
+      </c>
+      <c r="G4">
+        <v>0.6740172579098753</v>
+      </c>
+      <c r="H4">
+        <v>0.5543257802549063</v>
+      </c>
+      <c r="I4">
         <v>0.4155629008142305</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="J4">
+        <v>0.1789176574905547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -465,12 +555,30 @@
         <v>0.631233421071498</v>
       </c>
       <c r="D5">
+        <v>0.3584</v>
+      </c>
+      <c r="E5">
+        <v>0.4781491002570694</v>
+      </c>
+      <c r="F5">
+        <v>0.7569721115537849</v>
+      </c>
+      <c r="G5">
+        <v>0.6619964973730298</v>
+      </c>
+      <c r="H5">
+        <v>0.6175606059054272</v>
+      </c>
+      <c r="I5">
         <v>0.5051871698705479</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="J5">
+        <v>0.238265504139157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -479,12 +587,30 @@
         <v>0.5968010109071561</v>
       </c>
       <c r="D6">
+        <v>0.4258</v>
+      </c>
+      <c r="E6">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="F6">
+        <v>0.7737430167597765</v>
+      </c>
+      <c r="G6">
+        <v>0.643510054844607</v>
+      </c>
+      <c r="H6">
+        <v>0.5852842067925866</v>
+      </c>
+      <c r="I6">
         <v>0.4531900150443636</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="J6">
+        <v>0.179647156611299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -493,12 +619,30 @@
         <v>0.6279850606144404</v>
       </c>
       <c r="D7">
+        <v>0.3082</v>
+      </c>
+      <c r="E7">
+        <v>0.4961439588688946</v>
+      </c>
+      <c r="F7">
+        <v>0.7290836653386454</v>
+      </c>
+      <c r="G7">
+        <v>0.649737302977233</v>
+      </c>
+      <c r="H7">
+        <v>0.6126138121037701</v>
+      </c>
+      <c r="I7">
         <v>0.5065601134748039</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="J7">
+        <v>0.2241406126908151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -507,12 +651,30 @@
         <v>0.585616742041323</v>
       </c>
       <c r="D8">
+        <v>0.1038</v>
+      </c>
+      <c r="E8">
+        <v>0.5476190476190477</v>
+      </c>
+      <c r="F8">
+        <v>0.6019553072625698</v>
+      </c>
+      <c r="G8">
+        <v>0.583180987202925</v>
+      </c>
+      <c r="H8">
+        <v>0.5747871774408088</v>
+      </c>
+      <c r="I8">
         <v>0.4327970260163453</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="J8">
+        <v>0.1429811390272877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -521,12 +683,30 @@
         <v>0.5936123673553841</v>
       </c>
       <c r="D9">
+        <v>0.6541</v>
+      </c>
+      <c r="E9">
+        <v>0.2936507936507937</v>
+      </c>
+      <c r="F9">
+        <v>0.8784916201117319</v>
+      </c>
+      <c r="G9">
+        <v>0.676416819012797</v>
+      </c>
+      <c r="H9">
+        <v>0.5860712068812628</v>
+      </c>
+      <c r="I9">
         <v>0.4706917396195678</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="J9">
+        <v>0.2126197971197238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -535,12 +715,30 @@
         <v>0.5454928628760654</v>
       </c>
       <c r="D10">
+        <v>0.7971</v>
+      </c>
+      <c r="E10">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="F10">
+        <v>0.9472913616398243</v>
+      </c>
+      <c r="G10">
+        <v>0.6711281070745698</v>
+      </c>
+      <c r="H10">
+        <v>0.5494032565774879</v>
+      </c>
+      <c r="I10">
         <v>0.4167128423209544</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="J10">
+        <v>0.1668886708709616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -549,12 +747,30 @@
         <v>0.5439662161344578</v>
       </c>
       <c r="D11">
+        <v>0.7516</v>
+      </c>
+      <c r="E11">
+        <v>0.1790633608815427</v>
+      </c>
+      <c r="F11">
+        <v>0.9092240117130308</v>
+      </c>
+      <c r="G11">
+        <v>0.655831739961759</v>
+      </c>
+      <c r="H11">
+        <v>0.5441436862972867</v>
+      </c>
+      <c r="I11">
         <v>0.4107507647406348</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="J11">
+        <v>0.128677507724096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -563,12 +779,30 @@
         <v>0.5888951965389553</v>
       </c>
       <c r="D12">
+        <v>0.6951000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.2698412698412698</v>
+      </c>
+      <c r="F12">
+        <v>0.8962131837307152</v>
+      </c>
+      <c r="G12">
+        <v>0.6791934005499541</v>
+      </c>
+      <c r="H12">
+        <v>0.5830272267859925</v>
+      </c>
+      <c r="I12">
         <v>0.4672777852753958</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="J12">
+        <v>0.2148198018977438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -577,12 +811,30 @@
         <v>0.5477757745160914</v>
       </c>
       <c r="D13">
+        <v>0.7261</v>
+      </c>
+      <c r="E13">
+        <v>0.1928374655647383</v>
+      </c>
+      <c r="F13">
+        <v>0.9048316251830161</v>
+      </c>
+      <c r="G13">
+        <v>0.6577437858508605</v>
+      </c>
+      <c r="H13">
+        <v>0.5488345453738772</v>
+      </c>
+      <c r="I13">
         <v>0.41446009493756</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="J13">
+        <v>0.1386739021297851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -591,12 +843,30 @@
         <v>0.6244587108037887</v>
       </c>
       <c r="D14">
+        <v>0.3045</v>
+      </c>
+      <c r="E14">
+        <v>0.4858611825192802</v>
+      </c>
+      <c r="F14">
+        <v>0.7259358288770054</v>
+      </c>
+      <c r="G14">
+        <v>0.6437994722955145</v>
+      </c>
+      <c r="H14">
+        <v>0.6058985056981427</v>
+      </c>
+      <c r="I14">
         <v>0.5061416272938775</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="J14">
+        <v>0.2111557486322078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -605,12 +875,30 @@
         <v>0.5776056015867976</v>
       </c>
       <c r="D15">
+        <v>-0.1772</v>
+      </c>
+      <c r="E15">
+        <v>0.6503856041131105</v>
+      </c>
+      <c r="F15">
+        <v>0.4820717131474104</v>
+      </c>
+      <c r="G15">
+        <v>0.5394045534150613</v>
+      </c>
+      <c r="H15">
+        <v>0.5662286586302605</v>
+      </c>
+      <c r="I15">
         <v>0.4150847463002284</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="J15">
+        <v>0.1265588396200148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -619,12 +907,30 @@
         <v>0.5511494635097987</v>
       </c>
       <c r="D16">
+        <v>0.1895</v>
+      </c>
+      <c r="E16">
+        <v>0.4656084656084656</v>
+      </c>
+      <c r="F16">
+        <v>0.6201117318435754</v>
+      </c>
+      <c r="G16">
+        <v>0.56672760511883</v>
+      </c>
+      <c r="H16">
+        <v>0.5428600987260205</v>
+      </c>
+      <c r="I16">
         <v>0.3956722717187854</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="J16">
+        <v>0.08289537639026068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -633,12 +939,30 @@
         <v>0.540863320425787</v>
       </c>
       <c r="D17">
+        <v>0.7561</v>
+      </c>
+      <c r="E17">
+        <v>0.1657458563535912</v>
+      </c>
+      <c r="F17">
+        <v>0.9398826979472141</v>
+      </c>
+      <c r="G17">
+        <v>0.671455938697318</v>
+      </c>
+      <c r="H17">
+        <v>0.5528142771504027</v>
+      </c>
+      <c r="I17">
         <v>0.4154633149116825</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="J17">
+        <v>0.1700635635487107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -647,12 +971,30 @@
         <v>0.5468037220333239</v>
       </c>
       <c r="D18">
+        <v>0.3782</v>
+      </c>
+      <c r="E18">
+        <v>0.3746556473829201</v>
+      </c>
+      <c r="F18">
+        <v>0.7144948755490483</v>
+      </c>
+      <c r="G18">
+        <v>0.5965583173996176</v>
+      </c>
+      <c r="H18">
+        <v>0.5445752614659842</v>
+      </c>
+      <c r="I18">
         <v>0.4001260583951278</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="J18">
+        <v>0.09124740903552286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -661,12 +1003,30 @@
         <v>0.6345261627013796</v>
       </c>
       <c r="D19">
+        <v>0.483</v>
+      </c>
+      <c r="E19">
+        <v>0.4293059125964011</v>
+      </c>
+      <c r="F19">
+        <v>0.8061088977423638</v>
+      </c>
+      <c r="G19">
+        <v>0.6777583187390543</v>
+      </c>
+      <c r="H19">
+        <v>0.6177074051693825</v>
+      </c>
+      <c r="I19">
         <v>0.5005780987093116</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="J19">
+        <v>0.2501247319767834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -675,12 +1035,30 @@
         <v>0.5324712643678161</v>
       </c>
       <c r="D20">
+        <v>-0.6489</v>
+      </c>
+      <c r="E20">
+        <v>0.7285714285714285</v>
+      </c>
+      <c r="F20">
+        <v>0.4252873563218391</v>
+      </c>
+      <c r="G20">
+        <v>0.5122950819672131</v>
+      </c>
+      <c r="H20">
+        <v>0.5769293924466338</v>
+      </c>
+      <c r="I20">
         <v>0.284088681144343</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="J20">
+        <v>0.1432900368880033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -689,12 +1067,30 @@
         <v>0.6135065564648006</v>
       </c>
       <c r="D21">
+        <v>-0.226</v>
+      </c>
+      <c r="E21">
+        <v>0.7069408740359897</v>
+      </c>
+      <c r="F21">
+        <v>0.4594953519256308</v>
+      </c>
+      <c r="G21">
+        <v>0.5437828371278459</v>
+      </c>
+      <c r="H21">
+        <v>0.5832181129808103</v>
+      </c>
+      <c r="I21">
         <v>0.444901201715314</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="J21">
+        <v>0.1608233279977051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -703,12 +1099,30 @@
         <v>0.5710831042534953</v>
       </c>
       <c r="D22">
+        <v>0.0083</v>
+      </c>
+      <c r="E22">
+        <v>0.5767195767195767</v>
+      </c>
+      <c r="F22">
+        <v>0.5586592178770949</v>
+      </c>
+      <c r="G22">
+        <v>0.5648994515539305</v>
+      </c>
+      <c r="H22">
+        <v>0.5676893972983359</v>
+      </c>
+      <c r="I22">
         <v>0.4156638337692669</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="J22">
+        <v>0.128791858998003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -717,12 +1131,30 @@
         <v>0.6255731145682906</v>
       </c>
       <c r="D23">
+        <v>-0.1024</v>
+      </c>
+      <c r="E23">
+        <v>0.6606683804627249</v>
+      </c>
+      <c r="F23">
+        <v>0.5391766268260292</v>
+      </c>
+      <c r="G23">
+        <v>0.5805604203152365</v>
+      </c>
+      <c r="H23">
+        <v>0.599922503644377</v>
+      </c>
+      <c r="I23">
         <v>0.4686694935816538</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="J23">
+        <v>0.1897387278447076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -731,12 +1163,30 @@
         <v>0.5911735064396129</v>
       </c>
       <c r="D24">
+        <v>0.6905</v>
+      </c>
+      <c r="E24">
+        <v>0.2724867724867725</v>
+      </c>
+      <c r="F24">
+        <v>0.8949579831932774</v>
+      </c>
+      <c r="G24">
+        <v>0.6794871794871795</v>
+      </c>
+      <c r="H24">
+        <v>0.5837223778400249</v>
+      </c>
+      <c r="I24">
         <v>0.4710376265871875</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="J24">
+        <v>0.2156668806731816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -745,12 +1195,30 @@
         <v>0.5905265029711186</v>
       </c>
       <c r="D25">
+        <v>0.6744</v>
+      </c>
+      <c r="E25">
+        <v>0.2838196286472148</v>
+      </c>
+      <c r="F25">
+        <v>0.8854748603351955</v>
+      </c>
+      <c r="G25">
+        <v>0.6779505946935042</v>
+      </c>
+      <c r="H25">
+        <v>0.5846472444912052</v>
+      </c>
+      <c r="I25">
         <v>0.4689928400385198</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="J25">
+        <v>0.2127918007256059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -759,12 +1227,30 @@
         <v>0.5965996423398658</v>
       </c>
       <c r="D26">
+        <v>0.4504</v>
+      </c>
+      <c r="E26">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F26">
+        <v>0.7960893854748603</v>
+      </c>
+      <c r="G26">
+        <v>0.6553930530164533</v>
+      </c>
+      <c r="H26">
+        <v>0.5924891371818746</v>
+      </c>
+      <c r="I26">
         <v>0.4695074360793732</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="J26">
+        <v>0.1986429089765849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -773,12 +1259,30 @@
         <v>0.625955441302485</v>
       </c>
       <c r="D27">
+        <v>0.3083</v>
+      </c>
+      <c r="E27">
+        <v>0.4910025706940874</v>
+      </c>
+      <c r="F27">
+        <v>0.7306666666666667</v>
+      </c>
+      <c r="G27">
+        <v>0.6488147497805092</v>
+      </c>
+      <c r="H27">
+        <v>0.610834618680377</v>
+      </c>
+      <c r="I27">
         <v>0.5075061371166871</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="J27">
+        <v>0.2211287294360605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>12</v>
@@ -787,12 +1291,30 @@
         <v>0.5385922941324603</v>
       </c>
       <c r="D28">
+        <v>0.778</v>
+      </c>
+      <c r="E28">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="F28">
+        <v>0.9501466275659824</v>
+      </c>
+      <c r="G28">
+        <v>0.675934803451582</v>
+      </c>
+      <c r="H28">
+        <v>0.5540206822040439</v>
+      </c>
+      <c r="I28">
         <v>0.4140723126522494</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="J28">
+        <v>0.1821363705087002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -801,12 +1323,30 @@
         <v>0.5442788056258041</v>
       </c>
       <c r="D29">
+        <v>0.7756999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.1597796143250689</v>
+      </c>
+      <c r="F29">
+        <v>0.9443631039531479</v>
+      </c>
+      <c r="G29">
+        <v>0.6720841300191205</v>
+      </c>
+      <c r="H29">
+        <v>0.5520713591391084</v>
+      </c>
+      <c r="I29">
         <v>0.4167391358528065</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="J29">
+        <v>0.1717098284803451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -815,12 +1355,30 @@
         <v>0.5546244568590937</v>
       </c>
       <c r="D30">
+        <v>-0.4019</v>
+      </c>
+      <c r="E30">
+        <v>0.7671957671957672</v>
+      </c>
+      <c r="F30">
+        <v>0.3282122905027933</v>
+      </c>
+      <c r="G30">
+        <v>0.4798903107861061</v>
+      </c>
+      <c r="H30">
+        <v>0.5477040288492803</v>
+      </c>
+      <c r="I30">
         <v>0.4056878158094065</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="J30">
+        <v>0.09946241857307224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -829,12 +1387,30 @@
         <v>0.5959964768176651</v>
       </c>
       <c r="D31">
+        <v>-0.3691</v>
+      </c>
+      <c r="E31">
+        <v>0.7712082262210797</v>
+      </c>
+      <c r="F31">
+        <v>0.399734395750332</v>
+      </c>
+      <c r="G31">
+        <v>0.5262697022767076</v>
+      </c>
+      <c r="H31">
+        <v>0.5854713109857058</v>
+      </c>
+      <c r="I31">
         <v>0.4241234473094739</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="J31">
+        <v>0.1708367992345233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -843,12 +1419,30 @@
         <v>0.5467916217949493</v>
       </c>
       <c r="D32">
+        <v>0.7248</v>
+      </c>
+      <c r="E32">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="F32">
+        <v>0.9194729136163983</v>
+      </c>
+      <c r="G32">
+        <v>0.6634799235181644</v>
+      </c>
+      <c r="H32">
+        <v>0.55064554771729</v>
+      </c>
+      <c r="I32">
         <v>0.4162387203247923</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="J32">
+        <v>0.1507548804942644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -857,12 +1451,30 @@
         <v>0.6341642854460479</v>
       </c>
       <c r="D33">
+        <v>0.1982</v>
+      </c>
+      <c r="E33">
+        <v>0.5552699228791774</v>
+      </c>
+      <c r="F33">
+        <v>0.6759628154050464</v>
+      </c>
+      <c r="G33">
+        <v>0.6348511383537653</v>
+      </c>
+      <c r="H33">
+        <v>0.6156163691421119</v>
+      </c>
+      <c r="I33">
         <v>0.4882982491161367</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="J33">
+        <v>0.2234346416955317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>12</v>
@@ -871,7 +1483,25 @@
         <v>0.6222435546747317</v>
       </c>
       <c r="D34">
+        <v>0.2856</v>
+      </c>
+      <c r="E34">
+        <v>0.4883720930232558</v>
+      </c>
+      <c r="F34">
+        <v>0.715046604527297</v>
+      </c>
+      <c r="G34">
+        <v>0.6379613356766256</v>
+      </c>
+      <c r="H34">
+        <v>0.6017093487752764</v>
+      </c>
+      <c r="I34">
         <v>0.5036792307550336</v>
+      </c>
+      <c r="J34">
+        <v>0.2014977159796907</v>
       </c>
     </row>
   </sheetData>
